--- a/biology/Botanique/Kinkeliba/Kinkeliba.xlsx
+++ b/biology/Botanique/Kinkeliba/Kinkeliba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Combretum micranthum
 Le kinkeliba (Combretum micranthum) fait partie de la grande famille des Combrétacées, qui forme le fond arbustif et arboré des forêts de savane.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reichenbach (1825) est le premier à publier l'espèce, qu'il nomme Combretum parviflorum. Viennent ensuite plusieurs auteurs, donnant chacun un nom différent qui deviennent plus tard autant de synonymes : A. de Candolle avec Guillemin &amp; Perrottet (Combretum altum, 1828), Baillon (Bureava crotonoides, 1860), Heckel (Combretum raimbaultii[1], 1891[2],[3]) et Engler &amp; Diels (Combretum floribundum, 1899)[4].
-Heckel n'est donc pas le premier à étudier cette espèce. Mais il fait se généraliser l'usage du kinkéliba de Sénégambie dans les colonies françaises comme remède contre la fièvre bilieuse hématurique des pays chauds[2],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reichenbach (1825) est le premier à publier l'espèce, qu'il nomme Combretum parviflorum. Viennent ensuite plusieurs auteurs, donnant chacun un nom différent qui deviennent plus tard autant de synonymes : A. de Candolle avec Guillemin &amp; Perrottet (Combretum altum, 1828), Baillon (Bureava crotonoides, 1860), Heckel (Combretum raimbaultii, 1891,) et Engler &amp; Diels (Combretum floribundum, 1899).
+Heckel n'est donc pas le premier à étudier cette espèce. Mais il fait se généraliser l'usage du kinkéliba de Sénégambie dans les colonies françaises comme remède contre la fièvre bilieuse hématurique des pays chauds.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bureava crotonoides Baill. (1860)[4]
-Combretum altum Guill. &amp; Perr. ex DC. (1828)[4]
-Combretum floribundum Engl. &amp; Diels (1899)[4]
-Combretum parviflorum Rchb. (1825)[4]
-Combretum raimbaultii Heckel (1891)[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bureava crotonoides Baill. (1860)
+Combretum altum Guill. &amp; Perr. ex DC. (1828)
+Combretum floribundum Engl. &amp; Diels (1899)
+Combretum parviflorum Rchb. (1825)
+Combretum raimbaultii Heckel (1891)</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kinkeliba est un arbrisseau touffu, se groupant quelquefois en buisson. Il peut atteindre 4 ou 5 mètres.
 L'extrémité des branches est volubile.
@@ -617,9 +635,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le kinkeliba pousse dans les pays du Sahel – Sénégal, Mali, Niger, Burkina Faso, Guinée, Guinée-Bissau – où ses feuilles séchées sont consommées en tisane. On le trouve également au Togo ou encore en Côte d'Ivoire[7] et Soudan[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le kinkeliba pousse dans les pays du Sahel – Sénégal, Mali, Niger, Burkina Faso, Guinée, Guinée-Bissau – où ses feuilles séchées sont consommées en tisane. On le trouve également au Togo ou encore en Côte d'Ivoire et Soudan.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Quelques constituants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kinkeliba contiendrait des tanins, de la bétaïne, du nitrate de potasse, des hétérosides, des polyphénols.
 </t>
@@ -679,10 +701,12 @@
           <t>Le kinkeliba et la santé</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kinkeliba est réputé pour ses propriétés diurétiques, dépuratives et digestives. Il est parfois recommandé en accompagnement de jeûnes ou de diètes, ou en cas de constipation. On dit du kinkeliba qu'il est aussi un remède contre l'obésité.
-Au Sénégal, les feuilles séchées sont vendues attachées aux rameaux et ficelées en gros cigares avec des lanières de palmes de rônier (Borassus)[9].
+Au Sénégal, les feuilles séchées sont vendues attachées aux rameaux et ficelées en gros cigares avec des lanières de palmes de rônier (Borassus).
 			Vente au bord de la route (Sénégal)
 			Bottes de feuilles séchées
 			Préparation
